--- a/dishes.xlsx
+++ b/dishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayxi\PycharmProjects\Telegram_Bot_for_Canteen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A272A24-7BDA-4D0F-9939-0B5FAEB4E762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D89CF-1B1D-4D3C-AE44-9D7CCBC9BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Напитки</t>
   </si>
   <si>
-    <t>Ланчибоксы</t>
-  </si>
-  <si>
     <t>1. Крем-суп из овощей, 300г, 71р.</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>1. Салат «Витаминный», 120г, 65р.</t>
+  </si>
+  <si>
+    <t>Ланчбоксы</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,36 +535,36 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -575,22 +575,22 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -624,13 +624,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -638,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,27 +671,27 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/dishes.xlsx
+++ b/dishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayxi\PycharmProjects\Telegram_Bot_for_Canteen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D89CF-1B1D-4D3C-AE44-9D7CCBC9BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6977177-F183-4CC3-809B-45DDAE1191AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="3525" windowWidth="21780" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Салаты</t>
   </si>
@@ -171,19 +171,7 @@
     <t>3. Липтон 0.5 (персик, лимон и зеленый), 73р.</t>
   </si>
   <si>
-    <t>1. Суповой, 14р. (при заказе супа)</t>
-  </si>
-  <si>
-    <t>2. Большой, 16р. (при заказе горячих блюд)</t>
-  </si>
-  <si>
-    <t>3. Маленький, 6р. (при заказе блюд и выпечки, которая не может поместиться в пакеты)</t>
-  </si>
-  <si>
     <t>1. Салат «Витаминный», 120г, 65р.</t>
-  </si>
-  <si>
-    <t>Ланчбоксы</t>
   </si>
 </sst>
 </file>
@@ -501,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,13 +522,10 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -563,11 +548,8 @@
       <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -589,11 +571,8 @@
       <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -615,11 +594,8 @@
       <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -633,7 +609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -644,7 +620,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -655,7 +631,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -666,7 +642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -674,22 +650,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>33</v>
       </c>

--- a/dishes.xlsx
+++ b/dishes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayxi\PycharmProjects\Telegram_Bot_for_Canteen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6977177-F183-4CC3-809B-45DDAE1191AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC5BF6-7750-4AFC-87FC-8FBB0EAF9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3525" windowWidth="21780" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Салаты</t>
   </si>
@@ -168,10 +168,16 @@
     <t>2. Компот ягодный литр, 100р.</t>
   </si>
   <si>
-    <t>3. Липтон 0.5 (персик, лимон и зеленый), 73р.</t>
-  </si>
-  <si>
     <t>1. Салат «Витаминный», 120г, 65р.</t>
+  </si>
+  <si>
+    <t>4. Липтон 0.5 (лимон), 73р.</t>
+  </si>
+  <si>
+    <t>3. Липтон 0.5 (персик), 73р.</t>
+  </si>
+  <si>
+    <t>5. Липтон 0.5 (зеленый), 73р.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +531,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -592,7 +598,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -608,6 +614,9 @@
       <c r="G5" t="s">
         <v>44</v>
       </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -618,6 +627,9 @@
       </c>
       <c r="F6" t="s">
         <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/dishes.xlsx
+++ b/dishes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayxi\PycharmProjects\Telegram_Bot_for_Canteen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC5BF6-7750-4AFC-87FC-8FBB0EAF9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9079972D-B891-48C1-BA20-495B13768299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,46 +138,46 @@
     <t>3. Улитка с творогом, 71р.</t>
   </si>
   <si>
+    <t>5. Слойка с вишней, 65р.</t>
+  </si>
+  <si>
+    <t>6. Штрудель с яблоком, 109р.</t>
+  </si>
+  <si>
+    <t>7. Сосиска в слоёном тесте с сыром, 82р.</t>
+  </si>
+  <si>
+    <t>1. Чизкейк, 113р.</t>
+  </si>
+  <si>
+    <t>2. Ред вильвет, 137р.</t>
+  </si>
+  <si>
+    <t>3. Брауни, 157р.</t>
+  </si>
+  <si>
+    <t>4. Сметанник, 137р.</t>
+  </si>
+  <si>
+    <t>1. Вода 0.5л, 60р.</t>
+  </si>
+  <si>
+    <t>2. Компот ягодный литр, 100р.</t>
+  </si>
+  <si>
+    <t>1. Салат «Витаминный», 120г, 65р.</t>
+  </si>
+  <si>
+    <t>4. Липтон 0.5 (лимон), 73р.</t>
+  </si>
+  <si>
+    <t>3. Липтон 0.5 (персик), 73р.</t>
+  </si>
+  <si>
+    <t>5. Липтон 0.5 (зеленый), 73р.</t>
+  </si>
+  <si>
     <t>4. Запеканка, 109р.</t>
-  </si>
-  <si>
-    <t>5. Слойка с вишней, 65р.</t>
-  </si>
-  <si>
-    <t>6. Штрудель с яблоком, 109р.</t>
-  </si>
-  <si>
-    <t>7. Сосиска в слоёном тесте с сыром, 82р.</t>
-  </si>
-  <si>
-    <t>1. Чизкейк, 113р.</t>
-  </si>
-  <si>
-    <t>2. Ред вильвет, 137р.</t>
-  </si>
-  <si>
-    <t>3. Брауни, 157р.</t>
-  </si>
-  <si>
-    <t>4. Сметанник, 137р.</t>
-  </si>
-  <si>
-    <t>1. Вода 0.5л, 60р.</t>
-  </si>
-  <si>
-    <t>2. Компот ягодный литр, 100р.</t>
-  </si>
-  <si>
-    <t>1. Салат «Витаминный», 120г, 65р.</t>
-  </si>
-  <si>
-    <t>4. Липтон 0.5 (лимон), 73р.</t>
-  </si>
-  <si>
-    <t>3. Липтон 0.5 (персик), 73р.</t>
-  </si>
-  <si>
-    <t>5. Липтон 0.5 (зеленый), 73р.</t>
   </si>
 </sst>
 </file>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -549,10 +549,10 @@
         <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,10 +572,10 @@
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,10 +595,10 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -609,13 +609,13 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -626,10 +626,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
